--- a/global_data/day_data/002377.xlsx
+++ b/global_data/day_data/002377.xlsx
@@ -47,8 +47,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -102,12 +103,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -402,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I3452"/>
+  <dimension ref="A1:I3454"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -100516,6 +100518,64 @@
         <v>0.03206767362840655</v>
       </c>
     </row>
+    <row r="3453" spans="1:9">
+      <c r="A3453" s="3">
+        <v>45776</v>
+      </c>
+      <c r="B3453">
+        <v>2.77</v>
+      </c>
+      <c r="C3453">
+        <v>2.84</v>
+      </c>
+      <c r="D3453">
+        <v>2.72</v>
+      </c>
+      <c r="E3453">
+        <v>2.82</v>
+      </c>
+      <c r="F3453">
+        <v>21704500</v>
+      </c>
+      <c r="G3453">
+        <v>60530463</v>
+      </c>
+      <c r="H3453">
+        <v>871691047</v>
+      </c>
+      <c r="I3453">
+        <v>0.02489930357171605</v>
+      </c>
+    </row>
+    <row r="3454" spans="1:9">
+      <c r="A3454" s="3">
+        <v>45777</v>
+      </c>
+      <c r="B3454">
+        <v>2.81</v>
+      </c>
+      <c r="C3454">
+        <v>2.98</v>
+      </c>
+      <c r="D3454">
+        <v>2.8</v>
+      </c>
+      <c r="E3454">
+        <v>2.92</v>
+      </c>
+      <c r="F3454">
+        <v>34204904</v>
+      </c>
+      <c r="G3454">
+        <v>99253161</v>
+      </c>
+      <c r="H3454">
+        <v>871691047</v>
+      </c>
+      <c r="I3454">
+        <v>0.03923971012174454</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
